--- a/docs/Produits.xlsx
+++ b/docs/Produits.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
-  <workbookPr checkCompatibility="1"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alexandre/Desktop/M2 SID PROJECT/Agents-Fournisseur/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alexandre/Desktop/M2 SID PROJECT/Agents-Fournisseur/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14220"/>
+    <workbookView xWindow="440" yWindow="460" windowWidth="15360" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,20 +29,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
   <si>
     <t>Nom produit</t>
   </si>
   <si>
+    <t>Marque</t>
+  </si>
+  <si>
     <t>Decription produit</t>
   </si>
   <si>
+    <t>Prix produit au kilo/litre</t>
+  </si>
+  <si>
     <t>Catégorie</t>
   </si>
   <si>
     <t>Carotte</t>
   </si>
   <si>
+    <t>Bonduel</t>
+  </si>
+  <si>
     <t>Légume orange riche en protéines</t>
   </si>
   <si>
@@ -52,25 +61,37 @@
     <t>Poireau</t>
   </si>
   <si>
+    <t>Géant Vert</t>
+  </si>
+  <si>
     <t>Légume vert plein de fibre</t>
   </si>
   <si>
     <t>Citrouille</t>
   </si>
   <si>
+    <t>Cascina Belvedere</t>
+  </si>
+  <si>
     <t>Légume orange parfait pour les fêtes d'Halloween</t>
   </si>
   <si>
     <t>Brie</t>
   </si>
   <si>
+    <t>Président</t>
+  </si>
+  <si>
     <t>Fromage de caractère au lait de vache</t>
   </si>
   <si>
     <t>Produit laitier</t>
   </si>
   <si>
-    <t>Conté</t>
+    <t>Comté</t>
+  </si>
+  <si>
+    <t>Entremont</t>
   </si>
   <si>
     <t>Fromage au lait cru</t>
@@ -79,12 +100,18 @@
     <t>Lait</t>
   </si>
   <si>
+    <t>Candia</t>
+  </si>
+  <si>
     <t>Produit laitier semi-écrémé</t>
   </si>
   <si>
     <t>Bière</t>
   </si>
   <si>
+    <t>Chouffe</t>
+  </si>
+  <si>
     <t>Boisson alcoolisée à base d'orge et d'houblon</t>
   </si>
   <si>
@@ -94,18 +121,27 @@
     <t>Eau</t>
   </si>
   <si>
+    <t>Evian</t>
+  </si>
+  <si>
     <t>Eau de source</t>
   </si>
   <si>
     <t>Coca</t>
   </si>
   <si>
+    <t>Coca cola</t>
+  </si>
+  <si>
     <t>Boisson gazeuse sucrée</t>
   </si>
   <si>
     <t>Javel</t>
   </si>
   <si>
+    <t>Monsieur Propre</t>
+  </si>
+  <si>
     <t>Solution liquide oxydante désinfectante et décolorante</t>
   </si>
   <si>
@@ -115,10 +151,16 @@
     <t>Lave vitre</t>
   </si>
   <si>
+    <t>Kärcher</t>
+  </si>
+  <si>
     <t>Solution nettoyante spéciale fenêtre</t>
   </si>
   <si>
-    <t>Paic Citron</t>
+    <t>Liquide vaisselle</t>
+  </si>
+  <si>
+    <t>Paic</t>
   </si>
   <si>
     <t>Liquide vaisselle super dégraissant</t>
@@ -127,6 +169,9 @@
     <t>Parfum</t>
   </si>
   <si>
+    <t>Channel</t>
+  </si>
+  <si>
     <t>Fragrance délicate et boisée</t>
   </si>
   <si>
@@ -136,23 +181,114 @@
     <t>Rouge à lèvre</t>
   </si>
   <si>
+    <t>Velvet</t>
+  </si>
+  <si>
     <t>Produit de cosmétique permettant de souligner les lèvres</t>
   </si>
   <si>
     <t>Fond de teint</t>
   </si>
   <si>
+    <t>Maybelline</t>
+  </si>
+  <si>
     <t>Produit cosmétique permettant d'unifier et de protéger l'épiderme</t>
+  </si>
+  <si>
+    <t>Television HD</t>
+  </si>
+  <si>
+    <t>Samsung</t>
+  </si>
+  <si>
+    <t>Poste de télévision permettant l'emission et la reception de séquences audiovisuelles</t>
+  </si>
+  <si>
+    <t>High-tech</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Sony</t>
+  </si>
+  <si>
+    <t>GSM nouvelle génération</t>
+  </si>
+  <si>
+    <t>Rasoir éléctrique</t>
+  </si>
+  <si>
+    <t>Phillips</t>
+  </si>
+  <si>
+    <t>Rasoir performant et plus ergonomique pour un meilleur rasage de la moustache</t>
+  </si>
+  <si>
+    <t>Grand Frais</t>
+  </si>
+  <si>
+    <t>Cassegrin</t>
+  </si>
+  <si>
+    <t>Nos régions ont du talent</t>
+  </si>
+  <si>
+    <t>Coeur de lion</t>
+  </si>
+  <si>
+    <t>Juraflore</t>
+  </si>
+  <si>
+    <t>Lactel</t>
+  </si>
+  <si>
+    <t>Kronenbourg</t>
+  </si>
+  <si>
+    <t>Vittel</t>
+  </si>
+  <si>
+    <t>Pepsi</t>
+  </si>
+  <si>
+    <t>Saint Marc</t>
+  </si>
+  <si>
+    <t>Ecovacs</t>
+  </si>
+  <si>
+    <t>Mir</t>
+  </si>
+  <si>
+    <t>Dior</t>
+  </si>
+  <si>
+    <t>L'Oreal</t>
+  </si>
+  <si>
+    <t>Bourjois</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Wilkinson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-40C];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-40C]"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,11 +316,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -217,9 +348,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -538,20 +672,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="50.1640625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" customWidth="1"/>
+    <col min="3" max="3" width="65.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="25.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,176 +695,627 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1.95</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2">
+        <v>15.05</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="2">
+        <v>3.78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2">
+        <v>7.92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3.71</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9.23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2">
+        <v>56.48</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2">
+        <v>28.9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="2">
+        <v>299.99</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="2">
+        <v>149.9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="2">
+        <v>72.040000000000006</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="D20" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="E20" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D21" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="D22" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D23" s="2">
+        <v>14.99</v>
+      </c>
+      <c r="E23" t="s">
         <v>18</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="D24" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D25" s="2">
+        <v>0.98</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D26" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="E26" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D27" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>32</v>
       </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" t="s">
         <v>34</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D28" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>35</v>
       </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" t="s">
         <v>37</v>
       </c>
-      <c r="C16" t="s">
-        <v>33</v>
+      <c r="D29" s="2">
+        <v>6.54</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="2">
+        <v>12.6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="2">
+        <v>46.38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="2">
+        <v>41.2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="2">
+        <v>199.9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D36" s="2">
+        <v>780</v>
+      </c>
+      <c r="E36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="2">
+        <v>68.22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -749,9 +1334,7 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -770,9 +1353,7 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/docs/Produits.xlsx
+++ b/docs/Produits.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27610"/>
-  <workbookPr/>
+  <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alexandre/Desktop/M2 SID PROJECT/Agents-Fournisseur/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="440" yWindow="460" windowWidth="15360" windowHeight="10480"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="207">
   <si>
     <t>Nom produit</t>
   </si>
@@ -278,6 +278,378 @@
   </si>
   <si>
     <t>Wilkinson</t>
+  </si>
+  <si>
+    <t>Petits pois</t>
+  </si>
+  <si>
+    <t>Pommes de terre</t>
+  </si>
+  <si>
+    <t>Artichaux</t>
+  </si>
+  <si>
+    <t>Tomates</t>
+  </si>
+  <si>
+    <t>Brocolis</t>
+  </si>
+  <si>
+    <t>Haricots Verts</t>
+  </si>
+  <si>
+    <t>Choux fleur</t>
+  </si>
+  <si>
+    <t>Choux de bruxelles</t>
+  </si>
+  <si>
+    <t>Flageolets</t>
+  </si>
+  <si>
+    <t>Le must des petits pois</t>
+  </si>
+  <si>
+    <t>Des patates, toujours des patates</t>
+  </si>
+  <si>
+    <t>Superbe pièce murit à souhait</t>
+  </si>
+  <si>
+    <t>Bien ronde et bien rouge</t>
+  </si>
+  <si>
+    <t>Beau brocolis vert</t>
+  </si>
+  <si>
+    <t>Haricots vert made in France</t>
+  </si>
+  <si>
+    <t>Choux fleur de nos régions</t>
+  </si>
+  <si>
+    <t>Choux belges plusieurs fois primés</t>
+  </si>
+  <si>
+    <t>Flageolets bien ferme et de taille suffisante</t>
+  </si>
+  <si>
+    <t>Emmentale</t>
+  </si>
+  <si>
+    <t>Lait chocolat en brique</t>
+  </si>
+  <si>
+    <t>Crème fraiche</t>
+  </si>
+  <si>
+    <t>Fromage en portion</t>
+  </si>
+  <si>
+    <t>Gruyère</t>
+  </si>
+  <si>
+    <t>Fromage à raclette</t>
+  </si>
+  <si>
+    <t>Fromage à tartiner</t>
+  </si>
+  <si>
+    <t>Fondue</t>
+  </si>
+  <si>
+    <t>Lait de chèvre</t>
+  </si>
+  <si>
+    <t>Emmentale de montagne</t>
+  </si>
+  <si>
+    <t>Brie de nos régions</t>
+  </si>
+  <si>
+    <t>Idéal pour le goûter</t>
+  </si>
+  <si>
+    <t>Idéale pour la cuisine</t>
+  </si>
+  <si>
+    <t>Petites portions à emmener partout</t>
+  </si>
+  <si>
+    <t>Gruyère à déguster ou à ajouter dans vos plats</t>
+  </si>
+  <si>
+    <t>Idéal pour une raclette en famille ou amis</t>
+  </si>
+  <si>
+    <t>Fromage à tartiner idéal pour l'apéro</t>
+  </si>
+  <si>
+    <t>Fondue savoyarde</t>
+  </si>
+  <si>
+    <t>Pour ceux qui aiment le chèvre</t>
+  </si>
+  <si>
+    <t>Eau de vie</t>
+  </si>
+  <si>
+    <t>Mirabelle</t>
+  </si>
+  <si>
+    <t>Calva</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Whisky</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>Snaps</t>
+  </si>
+  <si>
+    <t>Jus de raisin</t>
+  </si>
+  <si>
+    <t>Jus de pomme</t>
+  </si>
+  <si>
+    <t>Arthurus</t>
+  </si>
+  <si>
+    <t>Moureyus</t>
+  </si>
+  <si>
+    <t>Alcolus</t>
+  </si>
+  <si>
+    <t>PuRienBus</t>
+  </si>
+  <si>
+    <t>Jack Daniels</t>
+  </si>
+  <si>
+    <t>Veuve cliquot</t>
+  </si>
+  <si>
+    <t>Deutshus</t>
+  </si>
+  <si>
+    <t>Materne</t>
+  </si>
+  <si>
+    <t>Normalus</t>
+  </si>
+  <si>
+    <t>Shivas</t>
+  </si>
+  <si>
+    <t>Saint Émilion</t>
+  </si>
+  <si>
+    <t>Le meilleur pour les fin de soirée</t>
+  </si>
+  <si>
+    <t>Idéal pour donner un peu de goût à vos repas</t>
+  </si>
+  <si>
+    <t>Pour les hommes, les vrais</t>
+  </si>
+  <si>
+    <t>Marc mûrit en fût pendant 7 mois</t>
+  </si>
+  <si>
+    <t>Le seul, l'unique</t>
+  </si>
+  <si>
+    <t>Vin de grande qualité</t>
+  </si>
+  <si>
+    <t>Artoung ça décoiffe</t>
+  </si>
+  <si>
+    <t>Jus de raisin 100% pur fruit</t>
+  </si>
+  <si>
+    <t>Pommes issue de l'agriculture biologique</t>
+  </si>
+  <si>
+    <t>Nettoyant WC</t>
+  </si>
+  <si>
+    <t>Déodorisant WC</t>
+  </si>
+  <si>
+    <t>Eponge</t>
+  </si>
+  <si>
+    <t>Nettoyant sol</t>
+  </si>
+  <si>
+    <t>Déboucheur canalisation</t>
+  </si>
+  <si>
+    <t>Chiffon vitre</t>
+  </si>
+  <si>
+    <t>Bombe dépoussiérante</t>
+  </si>
+  <si>
+    <t>Balai</t>
+  </si>
+  <si>
+    <t>Serpillère</t>
+  </si>
+  <si>
+    <t>Poudre BB</t>
+  </si>
+  <si>
+    <t>Eye liner</t>
+  </si>
+  <si>
+    <t>Mascarat waterproof</t>
+  </si>
+  <si>
+    <t>Gloss</t>
+  </si>
+  <si>
+    <t>Phare à paupière</t>
+  </si>
+  <si>
+    <t>Pince à épiler</t>
+  </si>
+  <si>
+    <t>Bande de cire</t>
+  </si>
+  <si>
+    <t>Coton tige</t>
+  </si>
+  <si>
+    <t>Crème hydrante</t>
+  </si>
+  <si>
+    <t>Eau miscellaire</t>
+  </si>
+  <si>
+    <t>Anti cernes</t>
+  </si>
+  <si>
+    <t>Four à microonde</t>
+  </si>
+  <si>
+    <t>Aspirateur</t>
+  </si>
+  <si>
+    <t>Idéal pour sentir bon où ça ne sent pas bon</t>
+  </si>
+  <si>
+    <t>Nettoyage suprême des zones de guerres</t>
+  </si>
+  <si>
+    <t>A utiliser avec de l'huile de coude</t>
+  </si>
+  <si>
+    <t>Mettre un bouchon dans 5 litres d'eau</t>
+  </si>
+  <si>
+    <t>Idéal pour le transit de vos canalisations. Ne pas ingérer</t>
+  </si>
+  <si>
+    <t>Ne fonctionne pas avec les écrans d'ordinateur</t>
+  </si>
+  <si>
+    <t>Idéal pour dépoussiérer</t>
+  </si>
+  <si>
+    <t>Ne sert pas à voler, mais à nettoyer</t>
+  </si>
+  <si>
+    <t>Serpillère 100% pure coton</t>
+  </si>
+  <si>
+    <t>Poudre pour jouer au ninja dans un nuage de fumé</t>
+  </si>
+  <si>
+    <t>Pour des maquillages réussis</t>
+  </si>
+  <si>
+    <t>Ne résiste pas à la piscine</t>
+  </si>
+  <si>
+    <t>Pour augmenter la taille de vos lèvres</t>
+  </si>
+  <si>
+    <t>Ne sert pas à attirer les bateaux</t>
+  </si>
+  <si>
+    <t>Sert également à tirer les vers du nez</t>
+  </si>
+  <si>
+    <t>100% avec douleurs</t>
+  </si>
+  <si>
+    <t>100% pure fibre de coton</t>
+  </si>
+  <si>
+    <t>Hydrate la peau en profondeur</t>
+  </si>
+  <si>
+    <t>Idéal pour se démaquiller</t>
+  </si>
+  <si>
+    <t>Pour les lendemains de soirée</t>
+  </si>
+  <si>
+    <t>Grille pain</t>
+  </si>
+  <si>
+    <t>Ordinateur</t>
+  </si>
+  <si>
+    <t>Tablette</t>
+  </si>
+  <si>
+    <t>Chaine HiFI</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Ecran PC</t>
+  </si>
+  <si>
+    <t>Montre connectée</t>
+  </si>
+  <si>
+    <t>Four à microonde haut de gamme</t>
+  </si>
+  <si>
+    <t>Aspirateur sans fil et sans sac</t>
+  </si>
+  <si>
+    <t>Idéal pour vos tartines du matin</t>
+  </si>
+  <si>
+    <t>Ordinateur top moumoute plus</t>
+  </si>
+  <si>
+    <t>Tablette idéal pour vos envies de mobilité</t>
+  </si>
+  <si>
+    <t>Chaine HiFi avec son HD</t>
+  </si>
+  <si>
+    <t>Capter toutes vos radios préférées</t>
+  </si>
+  <si>
+    <t>Ecran 15 pouces LED</t>
+  </si>
+  <si>
+    <t>Montre connectée répondant à tous vos besoins</t>
   </si>
 </sst>
 </file>
@@ -288,7 +660,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-40C];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-40C]"/>
     <numFmt numFmtId="165" formatCode="#,##0.00&quot; &quot;[$€-407];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-407]"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,6 +691,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -337,7 +728,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment horizontal="center"/>
@@ -347,17 +738,26 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Heading" xfId="1"/>
     <cellStyle name="Heading1" xfId="2"/>
+    <cellStyle name="Lien hypertexte" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Result" xfId="3"/>
     <cellStyle name="Result2" xfId="4"/>
@@ -672,9 +1072,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1314,12 +1716,2052 @@
         <v>58</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="3">
+        <f ca="1">RANDBETWEEN(11,20)/10</f>
+        <v>1.6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" ref="D39:D56" ca="1" si="0">RANDBETWEEN(11,20)/10</f>
+        <v>1.8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="3">
+        <f ca="1">RANDBETWEEN(21,30)/10</f>
+        <v>2.5</v>
+      </c>
+      <c r="E56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" ref="D57:D94" ca="1" si="1">RANDBETWEEN(21,30)/10</f>
+        <v>2.5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>104</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>105</v>
+      </c>
+      <c r="B61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>107</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>111</v>
+      </c>
+      <c r="D65" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68" t="s">
+        <v>114</v>
+      </c>
+      <c r="D68" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9</v>
+      </c>
+      <c r="E69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>107</v>
+      </c>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="E71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" t="s">
+        <v>118</v>
+      </c>
+      <c r="D72" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" t="s">
+        <v>119</v>
+      </c>
+      <c r="D73" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" t="s">
+        <v>118</v>
+      </c>
+      <c r="D74" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>109</v>
+      </c>
+      <c r="B75" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" t="s">
+        <v>141</v>
+      </c>
+      <c r="D77" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" t="s">
+        <v>142</v>
+      </c>
+      <c r="D78" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" t="s">
+        <v>143</v>
+      </c>
+      <c r="D79" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>124</v>
+      </c>
+      <c r="B80" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" t="s">
+        <v>144</v>
+      </c>
+      <c r="D80" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E80" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" t="s">
+        <v>145</v>
+      </c>
+      <c r="D81" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>126</v>
+      </c>
+      <c r="B82" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" t="s">
+        <v>146</v>
+      </c>
+      <c r="D82" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9</v>
+      </c>
+      <c r="E82" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>127</v>
+      </c>
+      <c r="B83" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" t="s">
+        <v>147</v>
+      </c>
+      <c r="D83" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="E83" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" t="s">
+        <v>148</v>
+      </c>
+      <c r="D84" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9</v>
+      </c>
+      <c r="E84" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" t="s">
+        <v>140</v>
+      </c>
+      <c r="D85" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.9</v>
+      </c>
+      <c r="E85" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" t="s">
+        <v>141</v>
+      </c>
+      <c r="D86" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E86" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" t="s">
+        <v>142</v>
+      </c>
+      <c r="D87" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7</v>
+      </c>
+      <c r="E87" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" t="s">
+        <v>131</v>
+      </c>
+      <c r="C88" t="s">
+        <v>143</v>
+      </c>
+      <c r="D88" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" t="s">
+        <v>138</v>
+      </c>
+      <c r="C89" t="s">
+        <v>144</v>
+      </c>
+      <c r="D89" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.7</v>
+      </c>
+      <c r="E89" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90" t="s">
+        <v>139</v>
+      </c>
+      <c r="C90" t="s">
+        <v>145</v>
+      </c>
+      <c r="D90" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="E90" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" t="s">
+        <v>130</v>
+      </c>
+      <c r="C91" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="E91" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" t="s">
+        <v>147</v>
+      </c>
+      <c r="D92" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E92" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93" t="s">
+        <v>136</v>
+      </c>
+      <c r="C93" t="s">
+        <v>148</v>
+      </c>
+      <c r="D93" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E93" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>150</v>
+      </c>
+      <c r="B94" t="s">
+        <v>36</v>
+      </c>
+      <c r="C94" t="s">
+        <v>171</v>
+      </c>
+      <c r="D94" s="3">
+        <f ca="1">RANDBETWEEN(31,40)/10</f>
+        <v>3.2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>149</v>
+      </c>
+      <c r="B95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" t="s">
+        <v>172</v>
+      </c>
+      <c r="D95" s="3">
+        <f t="shared" ref="D95:D112" ca="1" si="2">RANDBETWEEN(31,40)/10</f>
+        <v>3.6</v>
+      </c>
+      <c r="E95" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>151</v>
+      </c>
+      <c r="B96" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" t="s">
+        <v>173</v>
+      </c>
+      <c r="D96" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.6</v>
+      </c>
+      <c r="E96" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>152</v>
+      </c>
+      <c r="B97" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97" t="s">
+        <v>174</v>
+      </c>
+      <c r="D97" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.7</v>
+      </c>
+      <c r="E97" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>153</v>
+      </c>
+      <c r="B98" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" t="s">
+        <v>175</v>
+      </c>
+      <c r="D98" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.6</v>
+      </c>
+      <c r="E98" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>154</v>
+      </c>
+      <c r="B99" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" t="s">
+        <v>176</v>
+      </c>
+      <c r="D99" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.8</v>
+      </c>
+      <c r="E99" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>155</v>
+      </c>
+      <c r="B100" t="s">
+        <v>36</v>
+      </c>
+      <c r="C100" t="s">
+        <v>177</v>
+      </c>
+      <c r="D100" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="E100" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>156</v>
+      </c>
+      <c r="B101" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" t="s">
+        <v>178</v>
+      </c>
+      <c r="D101" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="E101" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>157</v>
+      </c>
+      <c r="B102" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" t="s">
+        <v>179</v>
+      </c>
+      <c r="D102" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.9</v>
+      </c>
+      <c r="E102" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>150</v>
+      </c>
+      <c r="B103" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" t="s">
+        <v>171</v>
+      </c>
+      <c r="D103" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" t="s">
+        <v>43</v>
+      </c>
+      <c r="C104" t="s">
+        <v>172</v>
+      </c>
+      <c r="D104" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>151</v>
+      </c>
+      <c r="B105" t="s">
+        <v>36</v>
+      </c>
+      <c r="C105" t="s">
+        <v>173</v>
+      </c>
+      <c r="D105" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.9</v>
+      </c>
+      <c r="E105" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>152</v>
+      </c>
+      <c r="B106" t="s">
+        <v>40</v>
+      </c>
+      <c r="C106" t="s">
+        <v>174</v>
+      </c>
+      <c r="D106" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.6</v>
+      </c>
+      <c r="E106" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>153</v>
+      </c>
+      <c r="B107" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" t="s">
+        <v>175</v>
+      </c>
+      <c r="D107" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.9</v>
+      </c>
+      <c r="E107" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>154</v>
+      </c>
+      <c r="B108" t="s">
+        <v>36</v>
+      </c>
+      <c r="C108" t="s">
+        <v>176</v>
+      </c>
+      <c r="D108" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>155</v>
+      </c>
+      <c r="B109" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" t="s">
+        <v>177</v>
+      </c>
+      <c r="D109" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>156</v>
+      </c>
+      <c r="B110" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" t="s">
+        <v>178</v>
+      </c>
+      <c r="D110" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.2</v>
+      </c>
+      <c r="E110" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>157</v>
+      </c>
+      <c r="B111" t="s">
+        <v>36</v>
+      </c>
+      <c r="C111" t="s">
+        <v>179</v>
+      </c>
+      <c r="D111" s="3">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.6</v>
+      </c>
+      <c r="E111" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>158</v>
+      </c>
+      <c r="B112" t="s">
+        <v>46</v>
+      </c>
+      <c r="C112" t="s">
+        <v>180</v>
+      </c>
+      <c r="D112" s="3">
+        <f ca="1">RANDBETWEEN(41,2000)/10</f>
+        <v>189.5</v>
+      </c>
+      <c r="E112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>159</v>
+      </c>
+      <c r="B113" t="s">
+        <v>50</v>
+      </c>
+      <c r="C113" t="s">
+        <v>181</v>
+      </c>
+      <c r="D113" s="3">
+        <f t="shared" ref="D113:D134" ca="1" si="3">RANDBETWEEN(41,2000)/10</f>
+        <v>195.7</v>
+      </c>
+      <c r="E113" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>160</v>
+      </c>
+      <c r="B114" t="s">
+        <v>53</v>
+      </c>
+      <c r="C114" t="s">
+        <v>182</v>
+      </c>
+      <c r="D114" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>105.1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>161</v>
+      </c>
+      <c r="B115" t="s">
+        <v>46</v>
+      </c>
+      <c r="C115" t="s">
+        <v>183</v>
+      </c>
+      <c r="D115" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>111.1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>162</v>
+      </c>
+      <c r="B116" t="s">
+        <v>50</v>
+      </c>
+      <c r="C116" t="s">
+        <v>184</v>
+      </c>
+      <c r="D116" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>110.8</v>
+      </c>
+      <c r="E116" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>163</v>
+      </c>
+      <c r="B117" t="s">
+        <v>53</v>
+      </c>
+      <c r="C117" t="s">
+        <v>185</v>
+      </c>
+      <c r="D117" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>45.7</v>
+      </c>
+      <c r="E117" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>164</v>
+      </c>
+      <c r="B118" t="s">
+        <v>46</v>
+      </c>
+      <c r="C118" t="s">
+        <v>186</v>
+      </c>
+      <c r="D118" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>30.2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>165</v>
+      </c>
+      <c r="B119" t="s">
+        <v>50</v>
+      </c>
+      <c r="C119" t="s">
+        <v>187</v>
+      </c>
+      <c r="D119" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>185.1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>166</v>
+      </c>
+      <c r="B120" t="s">
+        <v>53</v>
+      </c>
+      <c r="C120" t="s">
+        <v>188</v>
+      </c>
+      <c r="D120" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>169.3</v>
+      </c>
+      <c r="E120" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>167</v>
+      </c>
+      <c r="B121" t="s">
+        <v>46</v>
+      </c>
+      <c r="C121" t="s">
+        <v>189</v>
+      </c>
+      <c r="D121" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>150.9</v>
+      </c>
+      <c r="E121" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>168</v>
+      </c>
+      <c r="B122" t="s">
+        <v>50</v>
+      </c>
+      <c r="C122" t="s">
+        <v>190</v>
+      </c>
+      <c r="D122" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>58.6</v>
+      </c>
+      <c r="E122" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>158</v>
+      </c>
+      <c r="B123" t="s">
+        <v>46</v>
+      </c>
+      <c r="C123" t="s">
+        <v>180</v>
+      </c>
+      <c r="D123" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>157.6</v>
+      </c>
+      <c r="E123" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>159</v>
+      </c>
+      <c r="B124" t="s">
+        <v>50</v>
+      </c>
+      <c r="C124" t="s">
+        <v>181</v>
+      </c>
+      <c r="D124" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>177.7</v>
+      </c>
+      <c r="E124" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>160</v>
+      </c>
+      <c r="B125" t="s">
+        <v>53</v>
+      </c>
+      <c r="C125" t="s">
+        <v>182</v>
+      </c>
+      <c r="D125" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>136.6</v>
+      </c>
+      <c r="E125" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>161</v>
+      </c>
+      <c r="B126" t="s">
+        <v>46</v>
+      </c>
+      <c r="C126" t="s">
+        <v>183</v>
+      </c>
+      <c r="D126" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>62.7</v>
+      </c>
+      <c r="E126" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>162</v>
+      </c>
+      <c r="B127" t="s">
+        <v>50</v>
+      </c>
+      <c r="C127" t="s">
+        <v>184</v>
+      </c>
+      <c r="D127" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>53.8</v>
+      </c>
+      <c r="E127" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>163</v>
+      </c>
+      <c r="B128" t="s">
+        <v>53</v>
+      </c>
+      <c r="C128" t="s">
+        <v>185</v>
+      </c>
+      <c r="D128" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>148.19999999999999</v>
+      </c>
+      <c r="E128" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>164</v>
+      </c>
+      <c r="B129" t="s">
+        <v>46</v>
+      </c>
+      <c r="C129" t="s">
+        <v>186</v>
+      </c>
+      <c r="D129" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>177.5</v>
+      </c>
+      <c r="E129" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>165</v>
+      </c>
+      <c r="B130" t="s">
+        <v>50</v>
+      </c>
+      <c r="C130" t="s">
+        <v>187</v>
+      </c>
+      <c r="D130" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>94.5</v>
+      </c>
+      <c r="E130" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>166</v>
+      </c>
+      <c r="B131" t="s">
+        <v>53</v>
+      </c>
+      <c r="C131" t="s">
+        <v>188</v>
+      </c>
+      <c r="D131" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>33.200000000000003</v>
+      </c>
+      <c r="E131" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>167</v>
+      </c>
+      <c r="B132" t="s">
+        <v>46</v>
+      </c>
+      <c r="C132" t="s">
+        <v>189</v>
+      </c>
+      <c r="D132" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>102.5</v>
+      </c>
+      <c r="E132" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>168</v>
+      </c>
+      <c r="B133" t="s">
+        <v>53</v>
+      </c>
+      <c r="C133" t="s">
+        <v>190</v>
+      </c>
+      <c r="D133" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>97.1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>169</v>
+      </c>
+      <c r="B134" t="s">
+        <v>56</v>
+      </c>
+      <c r="C134" t="s">
+        <v>198</v>
+      </c>
+      <c r="D134" s="3">
+        <f ca="1">RANDBETWEEN(100,2000)/10</f>
+        <v>147.6</v>
+      </c>
+      <c r="E134" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>170</v>
+      </c>
+      <c r="B135" t="s">
+        <v>60</v>
+      </c>
+      <c r="C135" t="s">
+        <v>199</v>
+      </c>
+      <c r="D135" s="3">
+        <f t="shared" ref="D135:D150" ca="1" si="4">RANDBETWEEN(100,2000)/10</f>
+        <v>95.1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>191</v>
+      </c>
+      <c r="B136" t="s">
+        <v>63</v>
+      </c>
+      <c r="C136" t="s">
+        <v>200</v>
+      </c>
+      <c r="D136" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>103.7</v>
+      </c>
+      <c r="E136" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>192</v>
+      </c>
+      <c r="B137" t="s">
+        <v>56</v>
+      </c>
+      <c r="C137" t="s">
+        <v>201</v>
+      </c>
+      <c r="D137" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>78.900000000000006</v>
+      </c>
+      <c r="E137" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>193</v>
+      </c>
+      <c r="B138" t="s">
+        <v>60</v>
+      </c>
+      <c r="C138" t="s">
+        <v>202</v>
+      </c>
+      <c r="D138" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>195.7</v>
+      </c>
+      <c r="E138" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>194</v>
+      </c>
+      <c r="B139" t="s">
+        <v>63</v>
+      </c>
+      <c r="C139" t="s">
+        <v>203</v>
+      </c>
+      <c r="D139" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>94.9</v>
+      </c>
+      <c r="E139" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>195</v>
+      </c>
+      <c r="B140" t="s">
+        <v>56</v>
+      </c>
+      <c r="C140" t="s">
+        <v>204</v>
+      </c>
+      <c r="D140" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>157</v>
+      </c>
+      <c r="E140" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>196</v>
+      </c>
+      <c r="B141" t="s">
+        <v>60</v>
+      </c>
+      <c r="C141" t="s">
+        <v>205</v>
+      </c>
+      <c r="D141" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>86.4</v>
+      </c>
+      <c r="E141" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>169</v>
+      </c>
+      <c r="B142" t="s">
+        <v>60</v>
+      </c>
+      <c r="C142" t="s">
+        <v>198</v>
+      </c>
+      <c r="D142" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>68.099999999999994</v>
+      </c>
+      <c r="E142" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>170</v>
+      </c>
+      <c r="B143" t="s">
+        <v>63</v>
+      </c>
+      <c r="C143" t="s">
+        <v>199</v>
+      </c>
+      <c r="D143" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>149.69999999999999</v>
+      </c>
+      <c r="E143" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>191</v>
+      </c>
+      <c r="B144" t="s">
+        <v>56</v>
+      </c>
+      <c r="C144" t="s">
+        <v>200</v>
+      </c>
+      <c r="D144" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>39.6</v>
+      </c>
+      <c r="E144" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>192</v>
+      </c>
+      <c r="B145" t="s">
+        <v>60</v>
+      </c>
+      <c r="C145" t="s">
+        <v>201</v>
+      </c>
+      <c r="D145" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="E145" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>193</v>
+      </c>
+      <c r="B146" t="s">
+        <v>63</v>
+      </c>
+      <c r="C146" t="s">
+        <v>202</v>
+      </c>
+      <c r="D146" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>172.5</v>
+      </c>
+      <c r="E146" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>194</v>
+      </c>
+      <c r="B147" t="s">
+        <v>56</v>
+      </c>
+      <c r="C147" t="s">
+        <v>203</v>
+      </c>
+      <c r="D147" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>188.4</v>
+      </c>
+      <c r="E147" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>195</v>
+      </c>
+      <c r="B148" t="s">
+        <v>60</v>
+      </c>
+      <c r="C148" t="s">
+        <v>204</v>
+      </c>
+      <c r="D148" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>155.4</v>
+      </c>
+      <c r="E148" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>196</v>
+      </c>
+      <c r="B149" t="s">
+        <v>63</v>
+      </c>
+      <c r="C149" t="s">
+        <v>205</v>
+      </c>
+      <c r="D149" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>15.1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>197</v>
+      </c>
+      <c r="B150" t="s">
+        <v>81</v>
+      </c>
+      <c r="C150" t="s">
+        <v>206</v>
+      </c>
+      <c r="D150" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>58.6</v>
+      </c>
+      <c r="E150" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="111" max="16383" man="1"/>
+    <brk id="149" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -1334,7 +3776,9 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -1353,7 +3797,9 @@
     <col min="1" max="1" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0" right="0" top="0.39409448818897641" bottom="0.39409448818897641" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
